--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3858339.632546575</v>
+        <v>3854087.152919952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7492172.461962102</v>
+        <v>7492172.461962103</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>76.5377102064076</v>
       </c>
       <c r="G2" t="n">
         <v>413.9075077423441</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607267</v>
+        <v>62.22601572607257</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>242.3309790683551</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>19.65125723642457</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>21.83806240155721</v>
+        <v>63.69429571031457</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870448</v>
+        <v>53.80849853870443</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.07874318772477</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845182</v>
+        <v>33.75546894845176</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.18055097546335</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>274.4678208233323</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.93016473072348</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1028,7 +1028,7 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>124.4794124287242</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
         <v>225.8573996139459</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>32.25090972307273</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.83307217803684</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>148.631213740271</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.96124341869875</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>46.77063515309029</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>134.3391137331265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>243.6815919258109</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.64713141731115</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.27150084979029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>39.9900098519203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187848</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881279</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.5660821043932</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>13.72582864853726</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.182516526919</v>
+        <v>1063.025644179759</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.219999586507</v>
+        <v>1063.025644179759</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.954300979757</v>
+        <v>704.7599455730081</v>
       </c>
       <c r="E2" t="n">
-        <v>880.1660483815126</v>
+        <v>704.7599455730081</v>
       </c>
       <c r="F2" t="n">
-        <v>469.1801435919051</v>
+        <v>627.4491271826973</v>
       </c>
       <c r="G2" t="n">
-        <v>51.09175193297153</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297153</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297153</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710337</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100501</v>
+        <v>435.2148351005014</v>
       </c>
       <c r="L2" t="n">
-        <v>833.266631831164</v>
+        <v>833.2666318311649</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537224</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
         <v>1745.101812813643</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132812</v>
+        <v>2127.026478132813</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935766</v>
+        <v>2415.315960935768</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648578</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309109</v>
+        <v>2491.733035309111</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309109</v>
+        <v>2312.716599815401</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.53656826617</v>
       </c>
       <c r="U2" t="n">
-        <v>2237.961283262631</v>
+        <v>1839.764816219692</v>
       </c>
       <c r="V2" t="n">
-        <v>2237.961283262631</v>
+        <v>1839.764816219692</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.182516526919</v>
+        <v>1839.764816219692</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.182516526919</v>
+        <v>1839.764816219692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.182516526919</v>
+        <v>1449.62548424388</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777583</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966313</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>516.89918493538</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>357.6617299299245</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>211.1271719568095</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
-        <v>73.15040082343336</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>73.15040082343336</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297153</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687509</v>
+        <v>120.176512368751</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270542</v>
+        <v>364.8742147270544</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066744</v>
+        <v>755.3048694066747</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633823</v>
+        <v>1105.758028360707</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.6331296318</v>
+        <v>1642.492908358684</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908672</v>
+        <v>2067.084785635556</v>
       </c>
       <c r="P3" t="n">
-        <v>2547.994353427086</v>
+        <v>2390.85413215397</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648578</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922612</v>
+        <v>2500.235577922614</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973173</v>
+        <v>2340.824460973175</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257394</v>
+        <v>2141.677234257396</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828257</v>
+        <v>1913.503224828259</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596515</v>
+        <v>1678.351116596516</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868313</v>
+        <v>1424.113759868315</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.26225966278</v>
+        <v>1216.262259662782</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897826</v>
+        <v>1008.501960897828</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5161800377615</v>
+        <v>345.894793013275</v>
       </c>
       <c r="C4" t="n">
-        <v>174.5161800377615</v>
+        <v>345.894793013275</v>
       </c>
       <c r="D4" t="n">
-        <v>174.5161800377615</v>
+        <v>345.894793013275</v>
       </c>
       <c r="E4" t="n">
-        <v>174.5161800377615</v>
+        <v>197.9816994308819</v>
       </c>
       <c r="F4" t="n">
-        <v>174.5161800377615</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="G4" t="n">
-        <v>174.5161800377615</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6992677269284</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6992677269284</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297153</v>
+        <v>51.09175193297157</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771861</v>
+        <v>101.0304570771862</v>
       </c>
       <c r="L4" t="n">
-        <v>220.461240970327</v>
+        <v>220.4612409703273</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486097</v>
+        <v>356.7733802486101</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493199</v>
+        <v>495.2789379493204</v>
       </c>
       <c r="O4" t="n">
-        <v>607.194942745564</v>
+        <v>607.1949427455646</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071404</v>
+        <v>679.4377367071411</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258759</v>
+        <v>645.3413034258767</v>
       </c>
       <c r="R4" t="n">
-        <v>645.3413034258759</v>
+        <v>573.4417569860148</v>
       </c>
       <c r="S4" t="n">
-        <v>645.3413034258759</v>
+        <v>573.4417569860148</v>
       </c>
       <c r="T4" t="n">
-        <v>645.3413034258759</v>
+        <v>345.894793013275</v>
       </c>
       <c r="U4" t="n">
-        <v>356.1646448680012</v>
+        <v>345.894793013275</v>
       </c>
       <c r="V4" t="n">
-        <v>356.1646448680012</v>
+        <v>345.894793013275</v>
       </c>
       <c r="W4" t="n">
-        <v>356.1646448680012</v>
+        <v>345.894793013275</v>
       </c>
       <c r="X4" t="n">
-        <v>356.1646448680012</v>
+        <v>345.894793013275</v>
       </c>
       <c r="Y4" t="n">
-        <v>356.1646448680012</v>
+        <v>345.894793013275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1623.374424326178</v>
+        <v>1569.279129811071</v>
       </c>
       <c r="C5" t="n">
-        <v>1623.374424326178</v>
+        <v>1569.279129811071</v>
       </c>
       <c r="D5" t="n">
-        <v>1265.108725719427</v>
+        <v>1569.279129811071</v>
       </c>
       <c r="E5" t="n">
-        <v>879.3204731211831</v>
+        <v>1183.490877212826</v>
       </c>
       <c r="F5" t="n">
-        <v>468.3345683315756</v>
+        <v>906.2506541589553</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>292.4474984771972</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014922</v>
+        <v>845.2607567233964</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1031.960169548804</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2522.005828672151</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2307.205966939863</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2307.205966939863</v>
+        <v>2308.647625145306</v>
       </c>
       <c r="V5" t="n">
-        <v>1976.143079596292</v>
+        <v>2308.647625145306</v>
       </c>
       <c r="W5" t="n">
-        <v>1623.374424326178</v>
+        <v>1955.878969875192</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.374424326178</v>
+        <v>1955.878969875192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.374424326178</v>
+        <v>1955.878969875192</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4640,10 +4640,10 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4652,19 +4652,19 @@
         <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>934.4694710564468</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1113.966807411052</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,22 +4676,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.3275600940552</v>
+        <v>420.7508731555606</v>
       </c>
       <c r="C7" t="n">
-        <v>352.3913771661483</v>
+        <v>251.8146902276537</v>
       </c>
       <c r="D7" t="n">
-        <v>352.3913771661483</v>
+        <v>101.698050815318</v>
       </c>
       <c r="E7" t="n">
-        <v>352.3913771661483</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
-        <v>205.501429668238</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>205.501429668238</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4752,25 +4752,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>996.8046274434722</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>996.8046274434722</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>996.8046274434722</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1201392375854</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1201392375854</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1201392375854</v>
+        <v>823.1919171293305</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.3275600940552</v>
+        <v>602.3993379858003</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505.192799657037</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>136.2302827166252</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166252</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>279.4173210990086</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>267.7529748637015</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>891.7926397211588</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.0150268210029</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210029</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1589.203054263295</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1366.22457345803</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1077.106235961868</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>822.421747755981</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>533.0045777190203</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>305.0150268210029</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.0150268210029</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3403484614387</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5600,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,16 +6068,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,16 +6736,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383367</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2357.803457383367</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2357.803457383367</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2357.803457383367</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7396,37 +7396,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,7 +7681,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>306.977567514528</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.34979150037665</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>138.7912195365843</v>
       </c>
       <c r="L5" t="n">
-        <v>178.7586225842971</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>300.9145760707517</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>294.5961368238072</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.90770736550135</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>8.456051398017081</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>84.77391660562009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.3131525023045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>86.46557462472418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.0185712477016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>61.35027805667356</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>67.54000767002827</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>733286.2355893808</v>
+        <v>733286.235589381</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632247.9983748901</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977564</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161966</v>
+        <v>548460.0746161971</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299269</v>
+        <v>225009.9816299265</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.12928438</v>
+        <v>167098.1292843801</v>
       </c>
       <c r="K3" t="n">
-        <v>498.761924360065</v>
+        <v>498.7619243599772</v>
       </c>
       <c r="L3" t="n">
-        <v>3.298474137503443e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289268</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198064</v>
+        <v>247452.3619198063</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719692</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26441,19 +26441,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719709</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.36846171964</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719709</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719706</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946028</v>
+        <v>80023.3137194603</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75420.02463778734</v>
+        <v>-75420.0246377874</v>
       </c>
       <c r="C6" t="n">
-        <v>291680.1725485451</v>
+        <v>291680.1725485455</v>
       </c>
       <c r="D6" t="n">
-        <v>282779.0801080605</v>
+        <v>282779.0801080609</v>
       </c>
       <c r="E6" t="n">
-        <v>170852.5947875829</v>
+        <v>170505.2155332259</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121296</v>
+        <v>677990.657157772</v>
       </c>
       <c r="G6" t="n">
-        <v>678338.0364121294</v>
+        <v>677990.657157772</v>
       </c>
       <c r="H6" t="n">
-        <v>678338.0364121287</v>
+        <v>677990.6571577723</v>
       </c>
       <c r="I6" t="n">
-        <v>678338.0364121292</v>
+        <v>677990.6571577723</v>
       </c>
       <c r="J6" t="n">
-        <v>511239.9071277491</v>
+        <v>510892.527873392</v>
       </c>
       <c r="K6" t="n">
-        <v>677839.2744877689</v>
+        <v>677491.895233412</v>
       </c>
       <c r="L6" t="n">
-        <v>678338.0364121289</v>
+        <v>677990.6571577722</v>
       </c>
       <c r="M6" t="n">
-        <v>545730.7426832025</v>
+        <v>545383.3634288454</v>
       </c>
       <c r="N6" t="n">
-        <v>678338.0364121289</v>
+        <v>677990.657157772</v>
       </c>
       <c r="O6" t="n">
-        <v>678338.0364121292</v>
+        <v>677990.6571577723</v>
       </c>
       <c r="P6" t="n">
-        <v>678338.0364121292</v>
+        <v>677990.6571577723</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817389</v>
+        <v>347.0634059817393</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621441</v>
+        <v>638.6468991621446</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817389</v>
+        <v>347.0634059817393</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563262</v>
+        <v>246.4126943563258</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621441</v>
+        <v>638.6468991621446</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937894288</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621441</v>
+        <v>638.6468991621443</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937894288</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621441</v>
+        <v>638.6468991621446</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937894288</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>330.3383355353038</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>106.9099896490579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>146.8819264134428</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.8562333087574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>83.58403569594202</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.11144063601727</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>77.97225669702283</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>132.4082249183792</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>114.7227223974167</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>70.53999045278907</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1830529234964</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>151.5328097220818</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27833,13 +27833,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>152.3873388221344</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.2766952373548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>147.8918252086472</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.194312413142801e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790909</v>
+        <v>1.395229772790911</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2888969105949</v>
+        <v>14.28889691059492</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552157</v>
+        <v>53.78959581552163</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284125</v>
+        <v>118.4183829284127</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106517</v>
+        <v>177.4784592106519</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697015</v>
+        <v>220.1777223697018</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415719</v>
+        <v>244.9901398415722</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335141</v>
+        <v>248.9543364335144</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803245</v>
+        <v>235.0805203803247</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645488</v>
+        <v>200.6357853645491</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264744</v>
+        <v>150.6691191264746</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507701</v>
+        <v>87.64310221507711</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747287</v>
+        <v>31.79379844747291</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392207</v>
+        <v>6.107618330392214</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232727</v>
+        <v>0.1116183818232728</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682685</v>
+        <v>0.7465137411682694</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809331</v>
+        <v>7.209751131809339</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110048</v>
+        <v>25.70233714110051</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502489</v>
+        <v>70.52917762502497</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832989</v>
+        <v>120.545598283299</v>
       </c>
       <c r="L3" t="n">
-        <v>162.088433142698</v>
+        <v>162.0884331426982</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600477</v>
+        <v>189.1495562600479</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821805</v>
+        <v>194.1557821821807</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857678</v>
+        <v>177.614609285768</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323863</v>
+        <v>142.5513827323865</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351442</v>
+        <v>95.29182422351454</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393866</v>
+        <v>46.34933561393871</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389305</v>
+        <v>13.86616532389306</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200169</v>
+        <v>3.008974246200173</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949137</v>
+        <v>0.04911274612949142</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736273</v>
+        <v>0.6258520435736281</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5643936237728</v>
+        <v>5.564393623772807</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946873</v>
+        <v>18.82107781946875</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065545</v>
+        <v>44.2477394806555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519052</v>
+        <v>72.7126283351906</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730095</v>
+        <v>93.04713018730105</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218232</v>
+        <v>98.10515261218244</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886252</v>
+        <v>95.77243135886263</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711602</v>
+        <v>88.46134157711613</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821395</v>
+        <v>75.69395988821405</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324256</v>
+        <v>52.40657430324263</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468328</v>
+        <v>28.14058370468331</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027858</v>
+        <v>10.90689425027859</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269135</v>
+        <v>2.674095095269138</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492517</v>
+        <v>0.03413738419492521</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>272.9327299394441</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,10 +32797,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33271,7 +33271,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738</v>
+        <v>106.4690935738001</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368359</v>
+        <v>281.5340207368361</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501647</v>
+        <v>402.072521950165</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071316</v>
+        <v>464.1574401071319</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489073</v>
+        <v>456.8881972489076</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213831</v>
+        <v>385.7824902213833</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807619</v>
+        <v>291.2014977807622</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119296</v>
+        <v>140.6784199119298</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876703</v>
+        <v>69.78258629876711</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215185</v>
+        <v>247.1693963215186</v>
       </c>
       <c r="L3" t="n">
-        <v>394.374398666283</v>
+        <v>394.3743986662831</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880292</v>
+        <v>353.9930898525576</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424007</v>
+        <v>542.1564444424009</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180529</v>
+        <v>428.8806841180531</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579932</v>
+        <v>327.0397439579934</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.659841637869562</v>
+        <v>165.3873378733421</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930766</v>
+        <v>50.44313650930775</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476171</v>
+        <v>120.6371554476172</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740229</v>
+        <v>137.689029574023</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.9046037380912</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911557</v>
+        <v>113.0464694911558</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310744</v>
+        <v>72.97251915310754</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>222.1883453695058</v>
       </c>
       <c r="L5" t="n">
-        <v>319.494638585563</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35020,19 +35020,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>439.5303316421597</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>404.3836393766343</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>130.3364854949997</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,10 +36445,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3854087.152919952</v>
+        <v>3855847.683222738</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7492172.461962103</v>
+        <v>7492172.461962102</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>76.5377102064076</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>83.56917220704216</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>156.6862937548842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607257</v>
+        <v>62.22601572607246</v>
       </c>
       <c r="S2" t="n">
         <v>177.2262711387724</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.65125723642457</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031457</v>
+        <v>63.69429571031454</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870443</v>
+        <v>53.80849853870437</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799448</v>
+        <v>10.93507936650348</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486214</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845176</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.18055097546335</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>189.3436703075633</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>274.4678208233323</v>
+        <v>274.4678208233318</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059541</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -995,7 +995,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>122.8779392327891</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>32.25090972307273</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>32.2509097230727</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>259.1603639508191</v>
       </c>
       <c r="H8" t="n">
-        <v>148.631213740271</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>243.6815919258109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179411</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187848</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.839588425940237</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>212.4287627768742</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4030,10 +4030,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1063.025644179759</v>
+        <v>1063.02564417976</v>
       </c>
       <c r="C2" t="n">
-        <v>1063.025644179759</v>
+        <v>1063.02564417976</v>
       </c>
       <c r="D2" t="n">
-        <v>704.7599455730081</v>
+        <v>704.7599455730099</v>
       </c>
       <c r="E2" t="n">
-        <v>704.7599455730081</v>
+        <v>704.7599455730099</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>293.7740407834023</v>
       </c>
       <c r="G2" t="n">
         <v>209.3607355237638</v>
@@ -4327,55 +4327,55 @@
         <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710337</v>
+        <v>156.4961545710339</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005014</v>
+        <v>435.2148351005019</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311649</v>
+        <v>833.2666318311656</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537225</v>
+        <v>1292.782497537226</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813643</v>
+        <v>1745.101812813645</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132813</v>
+        <v>2127.026478132815</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935768</v>
+        <v>2415.315960935769</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648578</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309111</v>
+        <v>2491.733035309113</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815401</v>
+        <v>2312.716599815403</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.53656826617</v>
+        <v>2093.536568266172</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219692</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="V2" t="n">
-        <v>1839.764816219692</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="W2" t="n">
-        <v>1839.764816219692</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="X2" t="n">
-        <v>1839.764816219692</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="Y2" t="n">
-        <v>1449.62548424388</v>
+        <v>1449.625484243882</v>
       </c>
     </row>
     <row r="3">
@@ -4403,58 +4403,58 @@
         <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>115.4294243676328</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="J3" t="n">
-        <v>120.176512368751</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270544</v>
+        <v>207.7339934539377</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066747</v>
+        <v>598.1646481335582</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360707</v>
+        <v>1105.758028360708</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358684</v>
+        <v>1642.492908358685</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635556</v>
+        <v>2067.084785635558</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.85413215397</v>
+        <v>2390.854132153971</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648578</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922614</v>
+        <v>2500.235577922616</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973175</v>
+        <v>2489.190043208976</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257396</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828259</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596516</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868315</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662782</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897828</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="C4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="D4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9816994308819</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297157</v>
+        <v>51.0917519329716</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771862</v>
+        <v>101.0304570771864</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703273</v>
+        <v>220.4612409703275</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486101</v>
+        <v>356.7733802486104</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493204</v>
+        <v>495.2789379493208</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455646</v>
+        <v>607.1949427455652</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071411</v>
+        <v>679.4377367071418</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258767</v>
+        <v>679.4377367071418</v>
       </c>
       <c r="R4" t="n">
-        <v>573.4417569860148</v>
+        <v>679.4377367071418</v>
       </c>
       <c r="S4" t="n">
-        <v>573.4417569860148</v>
+        <v>679.4377367071418</v>
       </c>
       <c r="T4" t="n">
-        <v>345.894793013275</v>
+        <v>488.1815040732394</v>
       </c>
       <c r="U4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="V4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="W4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="X4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.894793013275</v>
+        <v>199.0048455153647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.279129811071</v>
+        <v>1569.27912981107</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.279129811071</v>
+        <v>1569.27912981107</v>
       </c>
       <c r="D5" t="n">
-        <v>1569.279129811071</v>
+        <v>1569.27912981107</v>
       </c>
       <c r="E5" t="n">
         <v>1183.490877212826</v>
@@ -4564,28 +4564,28 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>292.4474984771972</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>845.2607567233964</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.960169548804</v>
+        <v>1215.460820653039</v>
       </c>
       <c r="N5" t="n">
-        <v>1659.267837608651</v>
+        <v>1842.768488712885</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375728</v>
+        <v>2389.929693479963</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378979</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4655,16 +4655,16 @@
         <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1549.489049537425</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1748.14579119009</v>
       </c>
       <c r="O6" t="n">
-        <v>1931.28606935682</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2417.108298264171</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2220.119002424259</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420.7508731555606</v>
+        <v>388.1741966676084</v>
       </c>
       <c r="C7" t="n">
-        <v>251.8146902276537</v>
+        <v>219.2380137397014</v>
       </c>
       <c r="D7" t="n">
-        <v>101.698050815318</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4764,13 +4764,13 @@
         <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>1018.604791539396</v>
       </c>
       <c r="X7" t="n">
-        <v>823.1919171293305</v>
+        <v>790.6152406413783</v>
       </c>
       <c r="Y7" t="n">
-        <v>602.3993379858003</v>
+        <v>569.8226614978481</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>690.4032258886161</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="E8" t="n">
-        <v>690.4032258886161</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="F8" t="n">
-        <v>279.4173210990086</v>
+        <v>683.4577251394122</v>
       </c>
       <c r="G8" t="n">
-        <v>267.7529748637015</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4849,7 +4849,7 @@
         <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143497</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458215</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4950,37 +4950,37 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432079</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5898,16 +5898,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,16 +6010,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,73 +6202,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,19 +6536,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M30" t="n">
         <v>692.9625378792909</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611464</v>
@@ -6685,67 +6685,67 @@
         <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,28 +6952,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7387,73 +7387,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164164</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>175.520327075874</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>306.977567514528</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>138.7912195365843</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8233,10 +8233,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>26.96079762532386</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>369.9956874605992</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5961368238072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.456051398017081</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038612</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>179.1866975757044</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.70888054695382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161971</v>
+        <v>548460.0746161976</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299265</v>
+        <v>225009.9816299259</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843801</v>
+        <v>167098.1292843804</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243599772</v>
+        <v>498.7619243597724</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198063</v>
+        <v>247452.3619198062</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171973</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719713</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719719</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719627</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719592</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719709</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.36846171969</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.36846171964</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.3137194603</v>
+        <v>80023.31371946033</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75420.0246377874</v>
+        <v>-75420.02463778749</v>
       </c>
       <c r="C6" t="n">
-        <v>291680.1725485455</v>
+        <v>291680.1725485459</v>
       </c>
       <c r="D6" t="n">
-        <v>282779.0801080609</v>
+        <v>282779.080108061</v>
       </c>
       <c r="E6" t="n">
-        <v>170505.2155332259</v>
+        <v>170817.8568621477</v>
       </c>
       <c r="F6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="G6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866938</v>
       </c>
       <c r="H6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866932</v>
       </c>
       <c r="I6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="J6" t="n">
-        <v>510892.527873392</v>
+        <v>511205.1692023132</v>
       </c>
       <c r="K6" t="n">
-        <v>677491.895233412</v>
+        <v>677804.5365623339</v>
       </c>
       <c r="L6" t="n">
-        <v>677990.6571577722</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="M6" t="n">
-        <v>545383.3634288454</v>
+        <v>545696.0047577666</v>
       </c>
       <c r="N6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866936</v>
       </c>
       <c r="O6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="P6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866933</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817393</v>
+        <v>347.0634059817397</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621446</v>
+        <v>638.646899162145</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817393</v>
+        <v>347.0634059817397</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563258</v>
+        <v>246.4126943563254</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621446</v>
+        <v>638.646899162145</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894288</v>
+        <v>1.93793293789372</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621443</v>
+        <v>638.6468991621455</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894288</v>
+        <v>1.937932937893493</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621446</v>
+        <v>638.646899162145</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894288</v>
+        <v>1.93793293789372</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>330.3383355353038</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>330.338335535302</v>
       </c>
       <c r="H2" t="n">
         <v>325.1859052051722</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8819264134428</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8819264134412</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27560,7 +27560,7 @@
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601727</v>
+        <v>49.11144063601722</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.7554689484517</v>
       </c>
       <c r="R4" t="n">
-        <v>77.97225669702283</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>35.92782402544904</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>132.4082249183792</v>
+        <v>132.4082249183796</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278847</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.09418201320248</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>114.1830529234964</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>254.2720886135183</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>152.3873388221348</v>
       </c>
       <c r="H8" t="n">
-        <v>152.3873388221344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.194312413142801e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790911</v>
+        <v>1.395229772790912</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059492</v>
+        <v>14.28889691059493</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552163</v>
+        <v>53.78959581552169</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284127</v>
+        <v>118.4183829284128</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106519</v>
+        <v>177.4784592106521</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697018</v>
+        <v>220.1777223697021</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415722</v>
+        <v>244.9901398415724</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335144</v>
+        <v>248.9543364335146</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803247</v>
+        <v>235.080520380325</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645491</v>
+        <v>200.6357853645493</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264746</v>
+        <v>150.6691191264747</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507711</v>
+        <v>87.64310221507722</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747291</v>
+        <v>31.79379844747294</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392214</v>
+        <v>6.107618330392221</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232728</v>
+        <v>0.111618381823273</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682694</v>
+        <v>0.7465137411682703</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809339</v>
+        <v>7.209751131809348</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110051</v>
+        <v>25.70233714110054</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502497</v>
+        <v>70.52917762502506</v>
       </c>
       <c r="K3" t="n">
-        <v>120.545598283299</v>
+        <v>120.5455982832992</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426982</v>
+        <v>162.0884331426983</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600479</v>
+        <v>189.1495562600481</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821807</v>
+        <v>194.155782182181</v>
       </c>
       <c r="O3" t="n">
-        <v>177.614609285768</v>
+        <v>177.6146092857682</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323865</v>
+        <v>142.5513827323866</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351454</v>
+        <v>95.29182422351464</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393871</v>
+        <v>46.34933561393876</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389306</v>
+        <v>13.86616532389308</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200173</v>
+        <v>3.008974246200176</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949142</v>
+        <v>0.04911274612949149</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736281</v>
+        <v>0.6258520435736288</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772807</v>
+        <v>5.564393623772813</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946875</v>
+        <v>18.82107781946877</v>
       </c>
       <c r="J4" t="n">
-        <v>44.2477394806555</v>
+        <v>44.24773948065555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.7126283351906</v>
+        <v>72.71262833519069</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730105</v>
+        <v>93.04713018730116</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218244</v>
+        <v>98.10515261218255</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886263</v>
+        <v>95.77243135886275</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711613</v>
+        <v>88.46134157711623</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821405</v>
+        <v>75.69395988821414</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324263</v>
+        <v>52.40657430324269</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468331</v>
+        <v>28.14058370468334</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027859</v>
+        <v>10.9068942502786</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269138</v>
+        <v>2.67409509526914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492521</v>
+        <v>0.03413738419492525</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33271,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>362.5355639238086</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>520.3372160854087</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738001</v>
+        <v>106.4690935738003</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368361</v>
+        <v>281.5340207368363</v>
       </c>
       <c r="L2" t="n">
-        <v>402.072521950165</v>
+        <v>402.0725219501653</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071319</v>
+        <v>464.1574401071322</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489076</v>
+        <v>456.8881972489079</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213833</v>
+        <v>385.7824902213836</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807622</v>
+        <v>291.2014977807625</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119298</v>
+        <v>140.6784199119299</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876711</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215186</v>
+        <v>158.2244863848142</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662831</v>
+        <v>394.3743986662834</v>
       </c>
       <c r="M3" t="n">
-        <v>353.9930898525576</v>
+        <v>512.7205860880297</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424009</v>
+        <v>542.1564444424012</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180531</v>
+        <v>428.8806841180533</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579934</v>
+        <v>327.0397439579936</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733421</v>
+        <v>165.3873378733422</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930775</v>
+        <v>50.44313650930783</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476172</v>
+        <v>120.6371554476173</v>
       </c>
       <c r="M4" t="n">
-        <v>137.689029574023</v>
+        <v>137.6890295740232</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380912</v>
+        <v>139.9046037380913</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911558</v>
+        <v>113.0464694911559</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310754</v>
+        <v>72.97251915310763</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>222.1883453695058</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
@@ -34953,10 +34953,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>138.8136514127244</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>551.3061282228263</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>404.3836393766343</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>222.5537898377871</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>377.7409716409642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
